--- a/dates.xlsx
+++ b/dates.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ryujihirano\systemtest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F4C0C3-73AC-49FC-916B-F9EE733D8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-23148" yWindow="4440" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +58,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,60 +338,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="n">
-        <v>25</v>
-      </c>
-      <c r="D1" t="n">
-        <v>22</v>
-      </c>
-      <c r="E1" t="n">
-        <v>42</v>
-      </c>
-      <c r="F1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E2" t="n">
-        <v>42</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dates.xlsx
+++ b/dates.xlsx
@@ -1,45 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ryujihirano\systemtest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F4C0C3-73AC-49FC-916B-F9EE733D8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="4440" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-23148" yWindow="4440" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,21 +53,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -338,17 +392,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="A1" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E2" t="n">
+        <v>48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>49</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>49</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/dates.xlsx
+++ b/dates.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-23148" yWindow="4440" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,10 +397,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
@@ -416,13 +416,13 @@
         <v>26</v>
       </c>
       <c r="D1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F1" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -436,73 +436,13 @@
         <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16</v>
-      </c>
-      <c r="E3" t="n">
-        <v>49</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" t="n">
-        <v>49</v>
-      </c>
-      <c r="F4" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16</v>
-      </c>
-      <c r="E5" t="n">
-        <v>49</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
@@ -445,6 +445,146 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -1,40 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ryujihirano\systemtest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCDFEDA-A92C-455D-8A76-503D4DCFB21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="Yu Gothic"/>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,80 +58,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,201 +338,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="n">
-        <v>26</v>
-      </c>
-      <c r="D1" t="n">
-        <v>17</v>
-      </c>
-      <c r="E1" t="n">
-        <v>31</v>
-      </c>
-      <c r="F1" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E2" t="n">
-        <v>32</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16</v>
-      </c>
-      <c r="E3" t="n">
-        <v>29</v>
-      </c>
-      <c r="F3" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" t="n">
-        <v>29</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>29</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16</v>
-      </c>
-      <c r="E6" t="n">
-        <v>31</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>29</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16</v>
-      </c>
-      <c r="E7" t="n">
-        <v>31</v>
-      </c>
-      <c r="F7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>29</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16</v>
-      </c>
-      <c r="E8" t="n">
-        <v>32</v>
-      </c>
-      <c r="F8" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>29</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16</v>
-      </c>
-      <c r="E9" t="n">
-        <v>32</v>
-      </c>
-      <c r="F9" t="n">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>